--- a/challenge/lista_medicamentos.xlsx
+++ b/challenge/lista_medicamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiago/Sites/medicaments/challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiago/Sites/challenger-set2019/challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360E4D10-5D5E-8748-99FA-05EF3864AA07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB54D75D-3E20-2042-B828-2B108004B847}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{ECA063A9-AD81-9643-BB15-EA4D4F0A318B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{ECA063A9-AD81-9643-BB15-EA4D4F0A318B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>GGREM</t>
   </si>
@@ -186,12 +186,6 @@
     <t>5 MG/ML XPE CT FR PLAS PET AMB X 60 ML + CP MED X 10 ML</t>
   </si>
   <si>
-    <t>BARBITRON</t>
-  </si>
-  <si>
-    <t>SANVAL</t>
-  </si>
-  <si>
     <t>TEUTO</t>
   </si>
   <si>
@@ -240,15 +234,6 @@
     <t>10 MG CAP GEL MOLE CT BL AL X 30</t>
   </si>
   <si>
-    <t>ITRACONAZOL</t>
-  </si>
-  <si>
-    <t>FUNGONAX</t>
-  </si>
-  <si>
-    <t>100 MG CAP GEL DURA CT BL AL PLAS INC X 4</t>
-  </si>
-  <si>
     <t>500501203135316</t>
   </si>
   <si>
@@ -282,9 +267,6 @@
     <t>502805201112311</t>
   </si>
   <si>
-    <t>530801201113415</t>
-  </si>
-  <si>
     <t>520727101117111</t>
   </si>
   <si>
@@ -298,9 +280,6 @@
   </si>
   <si>
     <t>529204901111319</t>
-  </si>
-  <si>
-    <t>520722402119412</t>
   </si>
   <si>
     <t>VALOR UNITÁRIO</t>
@@ -700,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E28329A-6C39-444E-A522-0621F9334645}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,10 +713,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -765,7 +744,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -788,7 +767,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -811,7 +790,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
@@ -834,7 +813,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -857,7 +836,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -880,7 +859,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>27</v>
@@ -926,7 +905,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
@@ -949,16 +928,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
@@ -972,7 +951,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -995,7 +974,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
@@ -1018,7 +997,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>48</v>
@@ -1041,91 +1020,91 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" s="7">
-        <v>25.1</v>
+        <v>37.79</v>
       </c>
       <c r="G15" s="5">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7">
-        <v>37.79</v>
+        <v>29.2</v>
       </c>
       <c r="G16" s="5">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7">
-        <v>29.2</v>
+        <v>189.47</v>
       </c>
       <c r="G17" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7">
-        <v>189.47</v>
+        <v>325.45</v>
       </c>
       <c r="G18" s="5">
         <v>100</v>
@@ -1133,71 +1112,25 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7">
-        <v>325.45</v>
+        <v>12.9</v>
       </c>
       <c r="G19" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="7">
-        <v>12.9</v>
-      </c>
-      <c r="G20" s="5">
         <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="7">
-        <v>23.8</v>
-      </c>
-      <c r="G21" s="5">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
